--- a/Docs/Docs V3.x/Orderlist_FRDM-MCXx_Shield_V3.0.xlsx
+++ b/Docs/Docs V3.x/Orderlist_FRDM-MCXx_Shield_V3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-repositories\FRDM_MCXx_SensHat\Docs\Docs V3.x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC9F26-3196-4694-ACB6-2F5694DC7F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4889E-420F-4124-BC3D-4AD063BE8A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{73606AE1-FCDB-4463-857B-E397C2A1DD7B}"/>
+    <workbookView xWindow="16371" yWindow="0" windowWidth="16629" windowHeight="17880" xr2:uid="{73606AE1-FCDB-4463-857B-E397C2A1DD7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t xml:space="preserve">Type: </t>
   </si>
@@ -143,9 +143,6 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>R1, R3, R4, R7, R8</t>
-  </si>
-  <si>
     <t>R2, R5, R6</t>
   </si>
   <si>
@@ -264,6 +261,15 @@
   </si>
   <si>
     <t>Prijs 30 pcbs</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R8, R9</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>https://nl.mouser.com/ProductDetail/Welwyn-Components-TT-Electronics/WCR0805-470RFI?qs=V22Ri4Ku26Fy0ZQ5gL0gBA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,12 +359,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -367,17 +387,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -410,8 +419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:G18" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="A1:G18" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:G19" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:G19" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{40FDC98D-4597-4516-8075-7DB8B5B16B60}" name="Type: "/>
     <tableColumn id="2" xr3:uid="{E364DB80-3F9E-426A-8D8A-9511B38F8C26}" name="Reference:"/>
@@ -419,7 +428,7 @@
     <tableColumn id="4" xr3:uid="{B9FE586B-2FA3-4BDB-AE86-26E63E6C3EC1}" name="Package:" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{E8588274-7FCF-4ED5-A4DB-8582E2A0278C}" name="Price pp:" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{F98FB604-9045-4F81-AD23-E46FEA608BD7}" name="Quantity:" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2334DE23-38A7-44B1-B1A7-203A7C8DF981}" name="Price total" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{2334DE23-38A7-44B1-B1A7-203A7C8DF981}" name="Price total" dataDxfId="5">
       <calculatedColumnFormula>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -428,14 +437,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}" name="Table3" displayName="Table3" ref="I1:N18" totalsRowShown="0">
-  <autoFilter ref="I1:N18" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}" name="Table3" displayName="Table3" ref="I1:N19" totalsRowShown="0">
+  <autoFilter ref="I1:N19" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E190DF5B-A60F-4828-9B71-0B0658849624}" name="PCBs:" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8922798D-A9BA-4B5B-ACC7-5DD6C802EF4E}" name="Price pp:" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FEA4C9D2-0BFC-443C-9AA1-DD2C26606830}" name="Extra" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E190DF5B-A60F-4828-9B71-0B0658849624}" name="PCBs:" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{8922798D-A9BA-4B5B-ACC7-5DD6C802EF4E}" name="Price pp:" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FEA4C9D2-0BFC-443C-9AA1-DD2C26606830}" name="Extra" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F3D23841-B4C1-478A-946B-890E8577F60B}" name="Link:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA668D65-472B-48FC-8FA8-2A29925B1765}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -802,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -814,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
         <v>26</v>
@@ -828,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -864,7 +873,7 @@
         <v>10.500000000000002</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
@@ -872,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -908,7 +917,7 @@
         <v>2.16</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -916,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
@@ -952,7 +961,7 @@
         <v>1.28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
@@ -960,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -996,7 +1005,7 @@
         <v>1.8</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
@@ -1004,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1040,51 +1049,51 @@
         <v>0.96</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="1">
+        <v>470</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="4">
-        <v>0.17699999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>1.4159999999999999</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="I7" s="1">
         <v>30</v>
       </c>
       <c r="J7" s="4">
-        <v>0.14000000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="K7" s="1">
-        <f>CEILING(Table2[[#This Row],[Quantity:]],10)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>300</v>
+        <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
+        <v>40</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>42.000000000000007</v>
+        <v>2.92</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
@@ -1092,43 +1101,43 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
-        <v>0.61399999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>3.07</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="I8" s="1">
         <v>30</v>
       </c>
       <c r="J8" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K8" s="1">
-        <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>180</v>
+        <f>CEILING(Table2[[#This Row],[Quantity:]],10)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
+        <v>300</v>
       </c>
       <c r="L8" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>75.42</v>
+        <v>42.000000000000007</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1136,23 +1145,23 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>1.2569999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="I9" s="1">
         <v>30</v>
@@ -1162,61 +1171,61 @@
       </c>
       <c r="K9" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M9" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>41.9</v>
+        <v>75.42</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4">
-        <v>0.35299999999999998</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>0.35299999999999998</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="I10" s="1">
         <v>30</v>
       </c>
       <c r="J10" s="4">
-        <v>0.26100000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="K10" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1">
         <v>10</v>
       </c>
       <c r="M10" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>10.440000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -1224,29 +1233,29 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="4">
-        <v>0.26</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>0.26</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="I11" s="1">
         <v>30</v>
       </c>
       <c r="J11" s="4">
-        <v>0.23799999999999999</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="K11" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
@@ -1257,10 +1266,10 @@
       </c>
       <c r="M11" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>9.52</v>
+        <v>10.440000000000001</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -1268,29 +1277,29 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="4">
-        <v>2.2200000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>2.2200000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="I12" s="1">
         <v>30</v>
       </c>
       <c r="J12" s="4">
-        <v>1.4</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="K12" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
@@ -1301,40 +1310,40 @@
       </c>
       <c r="M12" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>56</v>
+        <v>9.52</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="4">
-        <v>1.92</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>1.92</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="I13" s="1">
         <v>30</v>
       </c>
       <c r="J13" s="4">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="K13" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
@@ -1345,7 +1354,7 @@
       </c>
       <c r="M13" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>65.199999999999989</v>
+        <v>56</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>59</v>
@@ -1353,90 +1362,90 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5000</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="4">
-        <v>0.34399999999999997</v>
+        <v>1.92</v>
       </c>
       <c r="F14" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>2.0640000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="I14" s="1">
         <v>30</v>
       </c>
       <c r="J14" s="4">
-        <v>0.27</v>
+        <v>1.63</v>
       </c>
       <c r="K14" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="L14" s="1">
         <v>10</v>
       </c>
       <c r="M14" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>51.300000000000004</v>
+        <v>65.199999999999989</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5000</v>
       </c>
       <c r="E15" s="4">
-        <v>0.39100000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>0.78200000000000003</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="I15" s="1">
         <v>30</v>
       </c>
       <c r="J15" s="4">
-        <v>0.17100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="K15" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
       <c r="M15" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>11.97</v>
+        <v>51.300000000000004</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
@@ -1444,142 +1453,181 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4">
-        <v>0.41899999999999998</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>0.41899999999999998</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="I16" s="1">
         <v>30</v>
       </c>
       <c r="J16" s="4">
-        <v>0.16500000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K16" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L16" s="1">
         <v>10</v>
       </c>
       <c r="M16" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
-        <v>6.6000000000000005</v>
+        <v>11.97</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="4">
-        <v>7</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="4">
         <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>7</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="I17" s="1">
         <v>30</v>
       </c>
       <c r="J17" s="4">
-        <v>6</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K17" s="1">
         <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4">
         <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f>Table2[[#This Row],[Price pp:]]*Table2[[#This Row],[Quantity:]]</f>
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>30</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1">
+        <f>CEILING(Table2[[#This Row],[Quantity:]],1)*Table3[[#This Row],[PCBs:]]+Table3[[#This Row],[Extra]]</f>
+        <v>35</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="4">
+        <f>Table3[[#This Row],[Price pp:]]*Table3[[#This Row],[Total amount:]]</f>
         <v>210</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="N18" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <f>SUM(E2:E17)</f>
-        <v>14.593999999999999</v>
-      </c>
-      <c r="F18" s="1">
-        <f>SUM(F2:F17)</f>
-        <v>49</v>
-      </c>
-      <c r="G18" s="7">
-        <f>SUM(G2:G17)</f>
-        <v>22.558</v>
-      </c>
-      <c r="I18" s="1">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1">
-        <f>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</f>
-        <v>1470</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="4">
-        <f>SUM(M2:M17)</f>
-        <v>597.05000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="7">
+        <f>SUM(E2:E18)</f>
+        <v>14.686999999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM(F2:F18)</f>
+        <v>50</v>
+      </c>
+      <c r="G19" s="7">
+        <f>SUM(G2:G18)</f>
+        <v>22.651</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10">
+        <v>30</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
+        <f>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</f>
+        <v>1500</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="7">
+        <f>SUM(M2:M18)</f>
+        <v>599.97</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
-      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C22" s="1"/>
@@ -1588,13 +1636,6 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <f>SUM(G2:G17)</f>
-        <v>22.558</v>
-      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1602,11 +1643,11 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="9">
-        <f>M18/I18</f>
-        <v>19.901666666666667</v>
+        <f>SUM(G2:G18)</f>
+        <v>22.651</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1614,6 +1655,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="9">
+        <f>M19/I19</f>
+        <v>19.999000000000002</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1631,30 +1679,37 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N9" r:id="rId1" xr:uid="{5CA3D8BB-61D0-4E53-BF71-DA425BDF405A}"/>
-    <hyperlink ref="N11" r:id="rId2" xr:uid="{1A55389A-1A19-4E32-AE38-F43A65BD86B8}"/>
+    <hyperlink ref="N10" r:id="rId1" xr:uid="{5CA3D8BB-61D0-4E53-BF71-DA425BDF405A}"/>
+    <hyperlink ref="N12" r:id="rId2" xr:uid="{1A55389A-1A19-4E32-AE38-F43A65BD86B8}"/>
     <hyperlink ref="N2" r:id="rId3" xr:uid="{B6160D67-E05D-4A56-B6DE-EBC45A1BF257}"/>
     <hyperlink ref="N3" r:id="rId4" xr:uid="{821FBB06-6544-407A-B6BE-681BCA30C838}"/>
     <hyperlink ref="N4" r:id="rId5" xr:uid="{C67437A7-3DBC-4A2B-9761-C0688C683076}"/>
     <hyperlink ref="N5" r:id="rId6" xr:uid="{DBC73D3A-0088-403C-B9C7-8CD18042F0C4}"/>
     <hyperlink ref="N6" r:id="rId7" xr:uid="{F24773D7-ACFC-4FEB-BFEA-DE764FE59489}"/>
-    <hyperlink ref="N10" r:id="rId8" xr:uid="{BFB12241-3313-4E5E-8355-A575D38C2AE8}"/>
-    <hyperlink ref="N8" r:id="rId9" xr:uid="{227E09A4-BBF9-4109-8A1C-7D69D96E9039}"/>
-    <hyperlink ref="N7" r:id="rId10" xr:uid="{689417EE-FA0D-4B0B-9310-5B21CD1FEAB4}"/>
-    <hyperlink ref="N13" r:id="rId11" xr:uid="{426BD45B-5796-4EA3-A838-1FD19FD3A81F}"/>
-    <hyperlink ref="N14" r:id="rId12" xr:uid="{572FD0A8-6463-42DF-8FE4-BA6ED58DA170}"/>
-    <hyperlink ref="N15" r:id="rId13" xr:uid="{DD4FD881-306A-4DB7-A96D-91BD8CC55BA9}"/>
-    <hyperlink ref="N16" r:id="rId14" xr:uid="{DA512710-75F3-47D8-B368-1A3BA7E7D871}"/>
-    <hyperlink ref="N12" r:id="rId15" xr:uid="{9988F5CC-0B24-4686-B1BD-0FE5E32F3BB5}"/>
-    <hyperlink ref="N17" r:id="rId16" xr:uid="{9534E341-9BF7-4E15-82BF-0604C5ECEC51}"/>
+    <hyperlink ref="N11" r:id="rId8" xr:uid="{BFB12241-3313-4E5E-8355-A575D38C2AE8}"/>
+    <hyperlink ref="N9" r:id="rId9" xr:uid="{227E09A4-BBF9-4109-8A1C-7D69D96E9039}"/>
+    <hyperlink ref="N8" r:id="rId10" xr:uid="{689417EE-FA0D-4B0B-9310-5B21CD1FEAB4}"/>
+    <hyperlink ref="N14" r:id="rId11" xr:uid="{426BD45B-5796-4EA3-A838-1FD19FD3A81F}"/>
+    <hyperlink ref="N15" r:id="rId12" xr:uid="{572FD0A8-6463-42DF-8FE4-BA6ED58DA170}"/>
+    <hyperlink ref="N16" r:id="rId13" xr:uid="{DD4FD881-306A-4DB7-A96D-91BD8CC55BA9}"/>
+    <hyperlink ref="N17" r:id="rId14" xr:uid="{DA512710-75F3-47D8-B368-1A3BA7E7D871}"/>
+    <hyperlink ref="N13" r:id="rId15" xr:uid="{9988F5CC-0B24-4686-B1BD-0FE5E32F3BB5}"/>
+    <hyperlink ref="N18" r:id="rId16" xr:uid="{9534E341-9BF7-4E15-82BF-0604C5ECEC51}"/>
+    <hyperlink ref="N7" r:id="rId17" xr:uid="{73694FEC-426A-45D8-8CEF-ECA32E564EC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>